--- a/output_natural_sorted.xlsx
+++ b/output_natural_sorted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A414"/>
+  <dimension ref="A1:A419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,2861 +471,2896 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02.全局配置表String@Global_String.xlsx</t>
+          <t>01.战场极限属性配置表@Battle_Extreme_Attribute.xlsx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>03.错误码@Error_Code.xlsx</t>
+          <t>02.全局配置表String@Global_String.xlsx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04.通用帮助说明配置表@System_Help.xlsx</t>
+          <t>03.错误码@Error_Code.xlsx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05.邮件文本配置表@Mail_Text.xlsx</t>
+          <t>04.通用帮助说明配置表@System_Help.xlsx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06.语言切换表@Languages_Change.xlsx</t>
+          <t>05.邮件文本配置表@Mail_Text.xlsx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07.提示信息@Hint_Info.xlsx</t>
+          <t>06.语言切换表@Languages_Change.xlsx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10.宝可梦配置@Pokemon_Base.xlsx</t>
+          <t>07.提示信息@Hint_Info.xlsx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11.宝可梦实体配置@Pokemon_Hero.xlsx</t>
+          <t>10.宝可梦配置@Pokemon_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12.技能豆表@Skill_Bean.xlsx</t>
+          <t>11.宝可梦实体配置@Pokemon_Hero.xlsx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13.主动技能表(关卡野怪)@Active_Skill_Monster.xlsx</t>
+          <t>12.技能豆表@Skill_Bean.xlsx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13.主动技能表(自走棋)@Active_Skill_AutoChess.xlsx</t>
+          <t>13.主动技能表(关卡野怪)@Active_Skill_Monster.xlsx</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13.主动技能表(英雄)@Active_Skill_Hero.xlsx</t>
+          <t>13.主动技能表(自走棋)@Active_Skill_AutoChess.xlsx</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14.被动技能表@Passive_Skill.xlsx</t>
+          <t>13.主动技能表(英雄)@Active_Skill_Hero.xlsx</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15.宝可梦能量表@Skill_Energy.xlsx</t>
+          <t>14.被动技能表@Passive_Skill.xlsx</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16.Desc.AGE自定义事件参数说明@ignore.xlsx</t>
+          <t>15.宝可梦能量表@Skill_Energy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16.Desc.技能效果说明@ignore.xlsx</t>
+          <t>16.Desc.AGE自定义事件参数说明@ignore.xlsx</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16.技能效果表(关卡)@SkillEffect_Group_GameMode.xlsx</t>
+          <t>16.Desc.技能效果说明@ignore.xlsx</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16.技能效果表(自走棋)@SkillEffect_Group_AutoChess.xlsx</t>
+          <t>16.技能效果表(关卡)@SkillEffect_Group_GameMode.xlsx</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16.技能效果表(英雄)@SkillEffect_Group_Hero.xlsx</t>
+          <t>16.技能效果表(自走棋)@SkillEffect_Group_AutoChess.xlsx</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16.技能效果表(野怪)@SkillEffect_Group_Monster.xlsx</t>
+          <t>16.技能效果表(英雄)@SkillEffect_Group_Hero.xlsx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17.场景摄像机表@Scene_Camera.xlsx</t>
+          <t>16.技能效果表(野怪)@SkillEffect_Group_Monster.xlsx</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18.场景地图表@Scene_Map.xlsx</t>
+          <t>17.场景摄像机表@Scene_Camera.xlsx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19.单位配置(关卡)@Monster_Base_GameMode.xlsx</t>
+          <t>18.场景地图表@Scene_Map.xlsx</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19.单位配置(自走棋)@Monster_Base_AutoChess.xlsx</t>
+          <t>19.单位配置(关卡)@Monster_Base_GameMode.xlsx</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>19.单位配置(速调专用)@Monster_Base_Agile.xlsx</t>
+          <t>19.单位配置(自走棋)@Monster_Base_AutoChess.xlsx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>19.单位配置(野怪)@Monster_Base_Monster.xlsx</t>
+          <t>19.单位配置(速调专用)@Monster_Base_Agile.xlsx</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20.宝可梦经验表@PokemonExpGold_Base.xlsx</t>
+          <t>19.单位配置(野怪)@Monster_Base_Monster.xlsx</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21.单位成长配置(关卡)@Monster_Growth_GameMode.xlsx</t>
+          <t>20.宝可梦经验表@PokemonExpGold_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>21.单位成长配置(速调专用)@Monster_Growth_Agile.xlsx</t>
+          <t>21.单位成长配置(关卡)@Monster_Growth_GameMode.xlsx</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>21.单位成长配置(野怪)@Monster_Growth_Monster.xlsx</t>
+          <t>21.单位成长配置(速调专用)@Monster_Growth_Agile.xlsx</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22.经验金钱分享表@PokemonExpGold_Share.xlsx</t>
+          <t>21.单位成长配置(野怪)@Monster_Growth_Monster.xlsx</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>23.宝可梦成长配置@Pokemon_StatGrowth.xlsx</t>
+          <t>22.经验金钱分享表@PokemonExpGold_Share.xlsx</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>25.宝可梦天赋表@Pokemon_Talent.xlsx</t>
+          <t>23.宝可梦成长配置@Pokemon_StatGrowth.xlsx</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>26.宝可梦天赋方案表@Talent_Plan.xlsx</t>
+          <t>25.宝可梦天赋表@Pokemon_Talent.xlsx</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>28.可破坏物配置@SceneItem_Base.xlsx</t>
+          <t>26.宝可梦天赋方案表@Talent_Plan.xlsx</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>29.公式表@Formula.xlsx</t>
+          <t>28.可破坏物配置@SceneItem_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30.掉落表@Loot_Base.xlsx</t>
+          <t>29.公式表@Formula.xlsx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>31.道具表@Item_Base.xlsx</t>
+          <t>30.掉落表@Loot_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>32.连杀连死配置表@Battle_MultiKillorDead.xlsx</t>
+          <t>31.道具表@Item_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>33.战斗公告表@BattleNotify.xlsx</t>
+          <t>32.连杀连死配置表@Battle_MultiKillorDead.xlsx</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>35.局内飘字表@FloatWord.xlsx</t>
+          <t>33.战斗公告表@BattleNotify.xlsx</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>36.公式参数表@FormulaArg.xlsx</t>
+          <t>35.局内飘字表@FloatWord.xlsx</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>37.局外道具表@OutSideItem_Base.xlsx</t>
+          <t>36.公式参数表@FormulaArg.xlsx</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>38.模式宝可梦属性调整表@Pokemon_PropertyAdjust.xlsx</t>
+          <t>37.局外道具表@OutSideItem_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>39.宝可梦亲密度经验表@PokemonExp_Friendship.xlsx</t>
+          <t>38.模式宝可梦属性调整表@Pokemon_PropertyAdjust.xlsx</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>40.模型展示表@Model_Display.xlsx</t>
+          <t>39.宝可梦亲密度经验表@PokemonExp_Friendship.xlsx</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>41.局外资源ID类型对应表@ResIDTypeMatch_Base.xlsx</t>
+          <t>40.模型展示表@Model_Display.xlsx</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>42.不同步日志开关@NECltLogSwitch.xlsx</t>
+          <t>41.局外资源ID类型对应表@ResIDTypeMatch_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>43.宝可梦上下架表@Pokemon_Release.xlsx</t>
+          <t>42.不同步日志开关@NECltLogSwitch.xlsx</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>44.材质特效@Material_Effect.xlsx</t>
+          <t>43.宝可梦上下架表@Pokemon_Release.xlsx</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>45.局外固定掉落表@Drop_Static.xlsx</t>
+          <t>44.材质特效@Material_Effect.xlsx</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>45.局外掉落基础表@Drop_Base.xlsx</t>
+          <t>45.局外固定掉落表@Drop_Static.xlsx</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>46.局外掉落包表@Drop_Pack.xlsx</t>
+          <t>45.局外掉落基础表@Drop_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>47.复活时间表@Revive_Time.xlsx</t>
+          <t>46.局外掉落包表@Drop_Pack.xlsx</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>49.单局奖励配置表@BattleReward.xlsx</t>
+          <t>47.复活时间表@Revive_Time.xlsx</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>50.时装配置表@AvatarItem.xlsx</t>
+          <t>49.单局奖励配置表@BattleReward.xlsx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>51.套装配置表@AvatarSuit.xlsx</t>
+          <t>50.时装配置表@AvatarItem.xlsx</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>52.多语言字体对照表@FontMap.xlsx</t>
+          <t>51.套装配置表@AvatarSuit.xlsx</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>53.时装颜色表@AvatarColor.xlsx</t>
+          <t>52.多语言字体对照表@FontMap.xlsx</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>54.角色创建表@CreateRole.xlsx</t>
+          <t>53.时装颜色表@AvatarColor.xlsx</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>56.战术短语表@TacticalPhrase.xlsx</t>
+          <t>54.角色创建表@CreateRole.xlsx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>56.教学对话表@GuideDialog.xlsx</t>
+          <t>56.战术短语表@TacticalPhrase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>57.行为树配置表@Behaviac_Base.xlsx</t>
+          <t>56.教学对话表@GuideDialog.xlsx</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>58.搜索器配置表@Search_Base.xlsx</t>
+          <t>57.行为树配置表@Behaviac_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>59.BattlePass配置@BattlePass.xlsx</t>
+          <t>58.搜索器配置表@Search_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>61.宝可梦周限免配置@FreePokemon.xlsx</t>
+          <t>59.BattlePass配置@BattlePass.xlsx</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>62.新手引导表@Tutorial_Base.xlsx</t>
+          <t>61.宝可梦周限免配置@FreePokemon.xlsx</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>62.新手引导表@Tutorial_Extra.xlsx</t>
+          <t>62.新手引导表@Tutorial_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>63.新手引导UI表@Tutorial_UI.xlsx</t>
+          <t>62.新手引导表@Tutorial_Extra.xlsx</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>64.技能强化等级表@SkillSlot_LevelUp.xlsx</t>
+          <t>63.新手引导UI表@Tutorial_UI.xlsx</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>65.抓捕得分经验表@Capture_ScoreExp.xlsx</t>
+          <t>64.技能强化等级表@SkillSlot_LevelUp.xlsx</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>67.抓捕单位信息表@Monster_CaptureInfo.xlsx</t>
+          <t>65.抓捕得分经验表@Capture_ScoreExp.xlsx</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>68.训练师等级表@TrainerLevel.xlsx</t>
+          <t>67.抓捕单位信息表@Monster_CaptureInfo.xlsx</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>69.商城配置表@Shop.xlsx</t>
+          <t>68.训练师等级表@TrainerLevel.xlsx</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>70.天赋解锁@Talent_Unlock.xlsx</t>
+          <t>69.商城配置表@Shop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>70.行为树战斗力计算表@Behaviac_Valuation.xlsx</t>
+          <t>70.天赋解锁@Talent_Unlock.xlsx</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>71.BattlePass任务表@BattlePass_Task.xlsx</t>
+          <t>70.行为树战斗力计算表@Behaviac_Valuation.xlsx</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>71.行为树事件表@Behaviac_Event.xlsx</t>
+          <t>71.BattlePass任务表@BattlePass_Task.xlsx</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>72.AI模式表@Behaviac_Group.xlsx</t>
+          <t>71.行为树事件表@Behaviac_Event.xlsx</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>73.条件参数表@CondParam.xlsx</t>
+          <t>72.AI模式表@Behaviac_Group.xlsx</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>74.普通任务表@OridinaryTask.xlsx</t>
+          <t>73.条件参数表@CondParam.xlsx</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>75.活动任务基础表@ActivityBase.xlsx</t>
+          <t>74.普通任务表@OridinaryTask.xlsx</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>76.携带物升级方案表@HeldItemLevelUpDesign.xlsx</t>
+          <t>75.活动任务基础表@ActivityBase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>77.宝可梦装备表@Pokemon_Equipment.xlsx</t>
+          <t>76.携带物升级方案表@HeldItemLevelUpDesign.xlsx</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>78.宝可梦装备升级方案表@Pokemon_Equipment_Plan.xlsx</t>
+          <t>77.宝可梦装备表@Pokemon_Equipment.xlsx</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>79.宝可梦初始装备推荐表@Pokemon_Equipment_Recommend.xlsx</t>
+          <t>78.宝可梦装备升级方案表@Pokemon_Equipment_Plan.xlsx</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>80.抽奖配置@LotteryReward.xlsx</t>
+          <t>79.宝可梦初始装备推荐表@Pokemon_Equipment_Recommend.xlsx</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>81.宝可梦换装配置@Pokemon_Avatar_Base.xlsx</t>
+          <t>80.抽奖配置@LotteryReward.xlsx</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>82.宝可梦默认装扮配置@Pokemon_Avatar_Default.xlsx</t>
+          <t>81.宝可梦换装配置@Pokemon_Avatar_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>83.奖池配置@Reward_Pool.xlsx</t>
+          <t>82.宝可梦默认装扮配置@Pokemon_Avatar_Default.xlsx</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>84.聊天配置表@Chat_FastChatInRoom.xlsx</t>
+          <t>83.奖池配置@Reward_Pool.xlsx</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>84.聊天配置表@Chat_Type.xlsx</t>
+          <t>84.聊天配置表@Chat_FastChatInRoom.xlsx</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>85.得分奖励表@Get_Score_Reward.xlsx</t>
+          <t>84.聊天配置表@Chat_Type.xlsx</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>86.排位赛配置@RankedMatch.xlsx</t>
+          <t>85.得分奖励表@Get_Score_Reward.xlsx</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>87.人机匹配阵容表@AILineUp.xlsx</t>
+          <t>86.排位赛配置@RankedMatch.xlsx</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>88.Mvp参数配置@Mvp_Conf.xlsx</t>
+          <t>87.人机匹配阵容表@AILineUp.xlsx</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>89.新手关卡配置表@NewbieBattle.xlsx</t>
+          <t>88.Mvp参数配置@Mvp_Conf.xlsx</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>90.新手配置表@Newbie_Base.xlsx</t>
+          <t>89.新手关卡配置表@NewbieBattle.xlsx</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>91.基础时装配置表@DefaultAvatarItem.xlsx</t>
+          <t>90.新手配置表@Newbie_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>92.交分时间缩减系数表@Submit_Score_Time.xlsx</t>
+          <t>91.基础时装配置表@DefaultAvatarItem.xlsx</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>93.温暖局配置表@WarmBattleConf.xlsx</t>
+          <t>92.交分时间缩减系数表@Submit_Score_Time.xlsx</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>93温暖局配置扩展表@WarmBattleConfiExt.xlsx</t>
+          <t>93.温暖局配置表@WarmBattleConf.xlsx</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>94.红点配置表@Red_Dot.xlsx</t>
+          <t>93温暖局配置扩展表@WarmBattleConfiExt.xlsx</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>95.AI技能表@Behaviac_Skill.xlsx</t>
+          <t>94.红点配置表@Red_Dot.xlsx</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>96.MMR修正配置表@MMRModify.xlsx</t>
+          <t>95.AI技能表@Behaviac_Skill.xlsx</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>96.MMR修正配置表扩充@MMRModifyExt.xlsx</t>
+          <t>96.MMR修正配置表@MMRModify.xlsx</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>97.战斗固有属性描述表@InherentPropertyDesc.xlsx</t>
+          <t>96.MMR修正配置表扩充@MMRModifyExt.xlsx</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>101.举报文本配置表@ReportText.xlsx</t>
+          <t>97.战斗固有属性描述表@InherentPropertyDesc.xlsx</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>102.关卡查看与说明@MatchroomTips.xlsx</t>
+          <t>101.举报文本配置表@ReportText.xlsx</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>103.系统解锁表@SystemUnlock.xlsx</t>
+          <t>102.关卡查看与说明@MatchroomTips.xlsx</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>104.技能标签@SkillLogo.xlsx</t>
+          <t>103.系统解锁表@SystemUnlock.xlsx</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>105.AI玩家信息配置表@AiInfoConf.xlsx</t>
+          <t>104.技能标签@SkillLogo.xlsx</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>106.高级账号表@AdvancedAcnt.xlsx</t>
+          <t>105.AI玩家信息配置表@AiInfoConf.xlsx</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>107.得分动作表@GainScoreAction.xlsx</t>
+          <t>106.高级账号表@AdvancedAcnt.xlsx</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>108.战场经分表@BattleStat.xlsx</t>
+          <t>107.得分动作表@GainScoreAction.xlsx</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>109.新手14日礼包配置表@NewbieGift.xlsx</t>
+          <t>108.战场经分表@BattleStat.xlsx</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>110.宝可梦熟练度@PokemonProficiencyLevel.xlsx</t>
+          <t>109.新手14日礼包配置表@NewbieGift.xlsx</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>111.训练师经验奖励表@TrainerExpGift.xlsx</t>
+          <t>110.宝可梦熟练度@PokemonProficiencyLevel.xlsx</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>112.头像框配置表@HeadIcon.xlsx</t>
+          <t>111.训练师经验奖励表@TrainerExpGift.xlsx</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>113.宝可梦榜配置表@PokemonRank.xlsx</t>
+          <t>112.头像框配置表@HeadIcon.xlsx</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>114.充值配置表@Recharge.xlsx</t>
+          <t>113.宝可梦榜配置表@PokemonRank.xlsx</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>115.局内信号交流表@BattleSignalCommunicate.xlsx</t>
+          <t>114.充值配置表@Recharge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>116.匹配策略表@MatchStragely.xlsx</t>
+          <t>115.局内信号交流表@BattleSignalCommunicate.xlsx</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>117.局内新手触发提示表@TutorialTriggerTips.xlsx</t>
+          <t>116.匹配策略表@MatchStragely.xlsx</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>118.局内特效配置@SpecialEffect.xlsx</t>
+          <t>117.局内新手触发提示表@TutorialTriggerTips.xlsx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>119.携带分上限表@ScoreLimit.xlsx</t>
+          <t>118.局内特效配置@SpecialEffect.xlsx</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>120.战场经分压制分差表@BattleSuppressScoreGap.xlsx</t>
+          <t>119.携带分上限表@ScoreLimit.xlsx</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>121.功能机型配置表@DeviceConfig.xlsx</t>
+          <t>120.战场经分压制分差表@BattleSuppressScoreGap.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>122.强化普攻配置表@FortifiedNormalAttack.xlsx</t>
+          <t>121.功能机型配置表@DeviceConfig.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>123.机型黑白名单配置@DeviceBlackWhiteList.xlsx</t>
+          <t>122.强化普攻配置表@FortifiedNormalAttack.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>124.Switch按键绑定表@SwitchBtnBinding.xlsx</t>
+          <t>123.机型黑白名单配置@DeviceBlackWhiteList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>125.微信手Q白名单配置表@WXQQWhitelist.xlsx</t>
+          <t>124.Switch按键绑定表@SwitchBtnBinding.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>126.新手任务表@TutorialTask.xlsx</t>
+          <t>125.微信手Q白名单配置表@WXQQWhitelist.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>127.战斗徽章表@BattleBadge.xlsx</t>
+          <t>126.新手任务表@TutorialTask.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>128.宝可梦前N次的额外奖励表@PokemonExtraProficiency.xlsx</t>
+          <t>127.战斗徽章表@BattleBadge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>129.系统开关配置表@SystemSwitch.xlsx</t>
+          <t>128.宝可梦前N次的额外奖励表@PokemonExtraProficiency.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>130.NPC对话表@NPCDialog.xlsx</t>
+          <t>129.系统开关配置表@SystemSwitch.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>131.英雄配置表@Pokemon_Hero_Evolution.xlsx</t>
+          <t>130.NPC对话表@NPCDialog.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>132.快捷聊天配置表@FashChatText.xlsx</t>
+          <t>131.英雄配置表@Pokemon_Hero_Evolution.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>132.新玩家默认发放资源表@NewPlayerDefaultRes.xlsx</t>
+          <t>132.快捷聊天配置表@FashChatText.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>133.行为徽章条件表@MedalSceneCondition.xlsx</t>
+          <t>132.新玩家默认发放资源表@NewPlayerDefaultRes.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>134.匹配时长预估表@MatchTimeEstimate.xlsx</t>
+          <t>133.行为徽章条件表@MedalSceneCondition.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>135.局外徽章表@MedalBase.xlsx</t>
+          <t>134.匹配时长预估表@MatchTimeEstimate.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>136.局外消息锁屏对照表@NetMsgPair.xlsx</t>
+          <t>135.局外徽章表@MedalBase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>137.新手挑战任务@NewbieChallengeTask.xlsx</t>
+          <t>136.局外消息锁屏对照表@NetMsgPair.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>138.局外训练家道具信息@TrainerItemInfo.xlsx</t>
+          <t>137.新手挑战任务@NewbieChallengeTask.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>139.携带分掉落表@Score_Drop.xlsx</t>
+          <t>138.局外训练家道具信息@TrainerItemInfo.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>140.参赛卡装饰表@Contestant_Card_Decoration.xlsx</t>
+          <t>139.携带分掉落表@Score_Drop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>140.目标用户选取@ABTest.xlsx</t>
+          <t>140.参赛卡装饰表@Contestant_Card_Decoration.xlsx</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>141.投降投票表@SurrenderVotes.xlsx</t>
+          <t>140.目标用户选取@ABTest.xlsx</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>142.头发颜色混合贴图表@AvatarHairMixTexture.xlsx</t>
+          <t>141.投降投票表@SurrenderVotes.xlsx</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>143.新手并行任务表@TutorialParallelTask.xlsx</t>
+          <t>142.头发颜色混合贴图表@AvatarHairMixTexture.xlsx</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>144.局外显示NPC模型映射表格@ModelNPCMapping.xlsx</t>
+          <t>143.新手并行任务表@TutorialParallelTask.xlsx</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>145.TPC屏蔽词库@TPCSensitiveWords.xlsx</t>
+          <t>144.局外显示NPC模型映射表格@ModelNPCMapping.xlsx</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>146.社团标签配置表@GuildLabel.xlsx</t>
+          <t>145.TPC屏蔽词库@TPCSensitiveWords.xlsx</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>147.内链跳转表@InnerLinkJump.xlsx</t>
+          <t>146.社团标签配置表@GuildLabel.xlsx</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>148.表情表@Emoji.xlsx</t>
+          <t>147.内链跳转表@InnerLinkJump.xlsx</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>149.外发功能屏蔽渠道清单@ChannelIdBlackList.xlsx</t>
+          <t>148.表情表@Emoji.xlsx</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>150.账号安全限制@AccountSecurityRestriction.xlsx</t>
+          <t>149.外发功能屏蔽渠道清单@ChannelIdBlackList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>151.主页面菜单配置表@SystemMenuList.xlsx</t>
+          <t>150.账号安全限制@AccountSecurityRestriction.xlsx</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>152.国家选择信息表@NationSelectInformation.xlsx</t>
+          <t>151.主页面菜单配置表@SystemMenuList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>153.机型适配表@DeviceUIAdaptConfig.xlsx</t>
+          <t>152.国家选择信息表@NationSelectInformation.xlsx</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>154.活动公告表@ActivityNotify.xlsx</t>
+          <t>153.机型适配表@DeviceUIAdaptConfig.xlsx</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>155.局外玩家分组表@Player_GroupId.xlsx</t>
+          <t>154.活动公告表@ActivityNotify.xlsx</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>156.客服链接分组表@CustomerServiceGroup.xlsx</t>
+          <t>155.局外玩家分组表@Player_GroupId.xlsx</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>157.关卡预热表@LevelWarmUp.xlsx</t>
+          <t>156.客服链接分组表@CustomerServiceGroup.xlsx</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>158.平台绑定配置表@PlatformBinding.xlsx</t>
+          <t>157.关卡预热表@LevelWarmUp.xlsx</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>159.就近接入配置表@NearestAccess.xlsx</t>
+          <t>158.平台绑定配置表@PlatformBinding.xlsx</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>160.SkillTest预选阵容配置表@SkillTestSelectHero.xlsx</t>
+          <t>159.就近接入配置表@NearestAccess.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>161.地图帮助@MapHelpTable.xlsx</t>
+          <t>160.SkillTest预选阵容配置表@SkillTestSelectHero.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>162.客户端多语言Tag转义表@ClientTag.xlsx</t>
+          <t>161.地图帮助@MapHelpTable.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>163.客户端多语言Tag转义表@ClientTag_Patch.xlsx</t>
+          <t>162.客户端多语言Tag转义表@ClientTag.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>164.得分球表演表@ActorTrailAction.xlsx</t>
+          <t>163.客户端多语言Tag转义表@ClientTag_Patch.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>165.动态下载配置@DLCConfig.xlsx</t>
+          <t>164.得分球表演表@ActorTrailAction.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>165.活动清单@ActivityList.xlsx</t>
+          <t>165.动态下载配置@DLCConfig.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>166.血条下方多功能Hud配置@UnderHpHudCfg.xlsx</t>
+          <t>165.活动清单@ActivityList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>167.组件开关配置@ThirdSDKConfig.xlsx</t>
+          <t>166.血条下方多功能Hud配置@UnderHpHudCfg.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>168.公会集体玩法表@GuildCollective.xlsx</t>
+          <t>167.组件开关配置@ThirdSDKConfig.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>169.冰雪节活动@IceSnowActivity.xlsx</t>
+          <t>168.公会集体玩法表@GuildCollective.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>170.活动装饰配置@ActivityDecorate.xlsx</t>
+          <t>169.冰雪节活动@IceSnowActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>171.宝可梦关键字@PokemonKeyCode.xlsx</t>
+          <t>170.活动装饰配置@ActivityDecorate.xlsx</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>172.每日唯一任务表@DailyUniqGroup.xlsx</t>
+          <t>171.宝可梦关键字@PokemonKeyCode.xlsx</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>173.IDC流控配置@IdcFlowControl.xlsx</t>
+          <t>172.每日唯一任务表@DailyUniqGroup.xlsx</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>174.宝可梦性别@PokemonGender.xlsx</t>
+          <t>173.IDC流控配置@IdcFlowControl.xlsx</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>175.回流功能表@RecallBase.xlsx</t>
+          <t>174.宝可梦性别@PokemonGender.xlsx</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>176.亲密度表@Intimacy.xlsx</t>
+          <t>175.回流功能表@RecallBase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>177.版本兼容表@SystemVersionCompatible.xlsx</t>
+          <t>176.亲密度表@Intimacy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>178.IP白名单@IPWhiteList.xlsx</t>
+          <t>177.版本兼容表@SystemVersionCompatible.xlsx</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>179.成就系统表@Achievement.xlsx</t>
+          <t>178.IP白名单@IPWhiteList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>180.个性标签@PersonalityLabel.xlsx</t>
+          <t>179.成就系统表@Achievement.xlsx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>180.美容院肤色表@BeautySkin.xlsx</t>
+          <t>180.个性标签@PersonalityLabel.xlsx</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>181.Unchange白名单@UnchangeWhiteList.xlsx</t>
+          <t>180.美容院肤色表@BeautySkin.xlsx</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>182.AI名字数据@AINameData.xlsx</t>
+          <t>181.Unchange白名单@UnchangeWhiteList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>183.GM命令修改时间白名单@GMModifyTimeWhiteList.xlsx</t>
+          <t>182.AI名字数据@AINameData.xlsx</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>183.运营商监控配置表@TelecomOperMonitor.xlsx</t>
+          <t>183.GM命令修改时间白名单@GMModifyTimeWhiteList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>184.护林员玩法配置@Monster_Forester.xlsx</t>
+          <t>183.运营商监控配置表@TelecomOperMonitor.xlsx</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>184.装备掉落配置表@EquipmentDrops.xlsx</t>
+          <t>184.护林员玩法配置@Monster_Forester.xlsx</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>185.新增idc与留存相关性配置@IdcRetention.xlsx</t>
+          <t>184.装备掉落配置表@EquipmentDrops.xlsx</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>186.资源检查白名单@AssetsCheckWhiteList.xlsx</t>
+          <t>185.新增idc与留存相关性配置@IdcRetention.xlsx</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>187.HUD控制状态@HudControlState.xlsx</t>
+          <t>186.资源检查白名单@AssetsCheckWhiteList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>188.订阅系统表@SubScription.xlsx</t>
+          <t>187.HUD控制状态@HudControlState.xlsx</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>189.聊天气泡表@ChatBubble.xlsx</t>
+          <t>188.订阅系统表@SubScription.xlsx</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>190.超强人机投放白名单@ServerAIWhiteList.xlsx</t>
+          <t>189.聊天气泡表@ChatBubble.xlsx</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>191.宝可梦冲刺赛活动表@BossRushActivity.xlsx</t>
+          <t>190.超强人机投放白名单@ServerAIWhiteList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>192.组队开黑不掉星@PlayTogetherRankBuff.xlsx</t>
+          <t>191.宝可梦冲刺赛活动表@BossRushActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>193.宝可梦点数方案@PokemonPointScheme.xlsx</t>
+          <t>192.组队开黑不掉星@PlayTogetherRankBuff.xlsx</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>194.宝可梦点数勋章表@RankMedal.xlsx</t>
+          <t>193.宝可梦点数方案@PokemonPointScheme.xlsx</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>195.CDN资源表@CDNResource.xlsx</t>
+          <t>194.宝可梦点数勋章表@RankMedal.xlsx</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>196.梦岛活动_太阳伊布试炼@EspeonThreat.xlsx</t>
+          <t>195.CDN资源表@CDNResource.xlsx</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>197.IMUR问卷cdkey兑换码@Cdkey.xlsx</t>
+          <t>196.梦岛活动_太阳伊布试炼@EspeonThreat.xlsx</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>197.徽章表@Badge_Base.xlsx</t>
+          <t>197.IMUR问卷cdkey兑换码@Cdkey.xlsx</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>198.徽章特性表@BadgeBoardFeatureCell.xlsx</t>
+          <t>197.徽章表@Badge_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>199.徽章局内效果@BadgeEffect.xlsx</t>
+          <t>198.徽章特性表@BadgeBoardFeatureCell.xlsx</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>200.集结挑战赛配置@UniteChallenge.xlsx</t>
+          <t>199.徽章局内效果@BadgeEffect.xlsx</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>201.全宝可梦挑战活动@AllPkmChallenge.xlsx</t>
+          <t>200.集结挑战赛配置@UniteChallenge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>201.超强人机AI托管表@ServerAIHost.xlsx</t>
+          <t>201.全宝可梦挑战活动@AllPkmChallenge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>202.碎片活动付费表@FragmentShop.xlsx</t>
+          <t>201.超强人机AI托管表@ServerAIHost.xlsx</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>202.超链接@Hyperlink.xlsx</t>
+          <t>202.碎片活动付费表@FragmentShop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>203.历代训练家@MatchTrainer.xlsx</t>
+          <t>202.超链接@Hyperlink.xlsx</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>204.NPC随机时间权重@NPCRandomTime.xlsx</t>
+          <t>203.历代训练家@MatchTrainer.xlsx</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>205.结算任务模式配置表@SettlementTaskMode.xlsx</t>
+          <t>204.NPC随机时间权重@NPCRandomTime.xlsx</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>206.挫败值温暖局@FrustrateWarmBattle.xlsx</t>
+          <t>205.结算任务模式配置表@SettlementTaskMode.xlsx</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>207.NPC介绍表@NPCGuide.xlsx</t>
+          <t>206.挫败值温暖局@FrustrateWarmBattle.xlsx</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>207.排位赛BP规则表@BanPickRule.xlsx</t>
+          <t>207.NPC介绍表@NPCGuide.xlsx</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>208.切图表@Sprite.xlsx</t>
+          <t>207.排位赛BP规则表@BanPickRule.xlsx</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>209.雪祭活动表@SnowTurnTable.xlsx</t>
+          <t>208.切图表@Sprite.xlsx</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>210.地图技能冷却表@Map_Skill_CDTime.xlsx</t>
+          <t>209.雪祭活动表@SnowTurnTable.xlsx</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>211.线上赛事表@TenGames.xlsx</t>
+          <t>210.地图技能冷却表@Map_Skill_CDTime.xlsx</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>212.阵营战配置表@CampBattle.xlsx</t>
+          <t>211.线上赛事表@TenGames.xlsx</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>213.UI缓存配置表@WarmupUIConfig.xlsx</t>
+          <t>212.阵营战配置表@CampBattle.xlsx</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>214.天幕配置@Canopy.xlsx</t>
+          <t>213.UI缓存配置表@WarmupUIConfig.xlsx</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>214.客户端AI投放机型白名单@ClientAIHardwareWhite.xlsx</t>
+          <t>214.天幕配置@Canopy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>215.赛事榜配置表@TenGamesRank.xlsx</t>
+          <t>214.客户端AI投放机型白名单@ClientAIHardwareWhite.xlsx</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>216.宝可梦大冒险配置表@PokemonAdventure.xlsx</t>
+          <t>215.赛事榜配置表@TenGamesRank.xlsx</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>217.活动道具购买表@ActivityPropsBuy.xlsx</t>
+          <t>216.宝可梦大冒险配置表@PokemonAdventure.xlsx</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>218.局内战斗任务表@BattleGameTask.xlsx</t>
+          <t>217.活动道具购买表@ActivityPropsBuy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>219.战斗服连接失败剔除规则@RelayRemoveRule.xlsx</t>
+          <t>218.局内战斗任务表@BattleGameTask.xlsx</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>220.状态恢复特殊动作表@AnimRecover.xlsx</t>
+          <t>219.战斗服连接失败剔除规则@RelayRemoveRule.xlsx</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>221.用户方案选取表@UserSchemeSelect.xlsx</t>
+          <t>220.状态恢复特殊动作表@AnimRecover.xlsx</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>222.超强人机点赞表@ServerAIFabulous.xlsx</t>
+          <t>221.用户方案选取表@UserSchemeSelect.xlsx</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>223.宝可梦技能强化表@PokemonSkillFortify.xlsx</t>
+          <t>222.超强人机点赞表@ServerAIFabulous.xlsx</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>224.半真人局@HalfPersonWarmBattle.xlsx</t>
+          <t>223.宝可梦技能强化表@PokemonSkillFortify.xlsx</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>224.宝可梦局外招式解锁表@OutsidePokemonSkillUnlock.xlsx</t>
+          <t>224.半真人局@HalfPersonWarmBattle.xlsx</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>225.宝可梦自定义age替换表@PokemonCustomAgeReplace.xlsx</t>
+          <t>224.宝可梦局外招式解锁表@OutsidePokemonSkillUnlock.xlsx</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>225.抓捕乐园门票抽奖表@CaptureParadise.xlsx</t>
+          <t>225.宝可梦自定义age替换表@PokemonCustomAgeReplace.xlsx</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>226.宝可梦兑换表@PokemonExchange.xlsx</t>
+          <t>225.抓捕乐园门票抽奖表@CaptureParadise.xlsx</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>226.投球抽奖表@BallLottery.xlsx</t>
+          <t>226.宝可梦兑换表@PokemonExchange.xlsx</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>227.成长基金配置表@GrowthFund.xlsx</t>
+          <t>226.投球抽奖表@BallLottery.xlsx</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>228.活动等级限制表@ActivityRoleLevelLimit.xlsx</t>
+          <t>227.成长基金配置表@GrowthFund.xlsx</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>228.首充奖励表@FirstCharge.xlsx</t>
+          <t>228.活动等级限制表@ActivityRoleLevelLimit.xlsx</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>229.一元登录礼配置表@OneYuanGift.xlsx</t>
+          <t>228.首充奖励表@FirstCharge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>230.新携带物表@HeldItem.xlsx</t>
+          <t>229.一元登录礼配置表@OneYuanGift.xlsx</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>231.充值返现配置表@RechargeRebates.xlsx</t>
+          <t>230.新携带物表@HeldItem.xlsx</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>232.抽奖关卡野怪组配置表@MonsterSpawnerRandom.xlsx</t>
+          <t>231.充值返现配置表@RechargeRebates.xlsx</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>232.经济获取加成表@EcoAdditionRatio.xlsx</t>
+          <t>232.抽奖关卡野怪组配置表@MonsterSpawnerRandom.xlsx</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>233.抽奖关卡波次配置表@GachaModeMapConfig.xlsx</t>
+          <t>232.经济获取加成表@EcoAdditionRatio.xlsx</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>234.宝可梦守卫战表@TowerDefense.xlsx</t>
+          <t>233.抽奖关卡波次配置表@GachaModeMapConfig.xlsx</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>234.直购礼包@DirectPurchaseGift.xlsx</t>
+          <t>234.宝可梦守卫战表@TowerDefense.xlsx</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>235.塔防地图刷怪表@TowerDefenseWave.xlsx</t>
+          <t>234.直购礼包@DirectPurchaseGift.xlsx</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>236.地区配置表@Region_Base.xlsx</t>
+          <t>235.塔防地图刷怪表@TowerDefenseWave.xlsx</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>236.塔防地图Buff表@TowerDefenseBonus.xlsx</t>
+          <t>236.地区配置表@Region_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>237.扭蛋抽奖表@CapsuleToysLottery.xlsx</t>
+          <t>236.塔防地图Buff表@TowerDefenseBonus.xlsx</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>237.登陆前全局配置表@Prelogin_Global_Base.xlsx</t>
+          <t>237.扭蛋抽奖表@CapsuleToysLottery.xlsx</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>238.主城配置表@MainCity.xlsx</t>
+          <t>237.登陆前全局配置表@Prelogin_Global_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>239.自定义房间相关表@CustomRoomSetting.xlsx</t>
+          <t>238.主城配置表@MainCity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>240.直购商品表@DirectPurchaseShop.xlsx</t>
+          <t>239.自定义房间相关表@CustomRoomSetting.xlsx</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>241.战力差预警配置表@ValueCompareAlarm.xlsx</t>
+          <t>240.直购商品表@DirectPurchaseShop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>242.宝可梦熟练度表@PokemonProficiency.xlsx</t>
+          <t>241.战力差预警配置表@ValueCompareAlarm.xlsx</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>243.房间号取值区间表@ShowIdRange.xlsx</t>
+          <t>242.宝可梦熟练度表@PokemonProficiency.xlsx</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>243.结算点赞配置@SettleFabulous.xlsx</t>
+          <t>243.房间号取值区间表@ShowIdRange.xlsx</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>244.玩家休闲动作配置表@PlayerLeisureAnim.xlsx</t>
+          <t>243.结算点赞配置@SettleFabulous.xlsx</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>245.局外条件表@OusideCondition.xlsx</t>
+          <t>244.玩家休闲动作配置表@PlayerLeisureAnim.xlsx</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>266.国内文本关卡配置表@MapTranslationConfiguration.xlsx</t>
+          <t>245.局外条件表@OusideCondition.xlsx</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>266.国内文本战斗配置表@BattleTranslationConfiguration.xlsx</t>
+          <t>266.国内文本关卡配置表@MapTranslationConfiguration.xlsx</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>266.国内文本系统配置表@SystemTranslationConfiguration.xlsx</t>
+          <t>266.国内文本战斗配置表@BattleTranslationConfiguration.xlsx</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>266.国内文本运营配置表@OpsEvenTranslationConfiguration.xlsx</t>
+          <t>266.国内文本系统配置表@SystemTranslationConfiguration.xlsx</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>266.国内文本配置表@TotalTranslationConfiguration.xlsx</t>
+          <t>266.国内文本运营配置表@OpsEvenTranslationConfiguration.xlsx</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>267.地图奖杯系统@MapTrophy.xlsx</t>
+          <t>266.国内文本配置表@TotalTranslationConfiguration.xlsx</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>268.结算显示数据类型配置表@SettleShowValue.xlsx</t>
+          <t>267.地图奖杯系统@MapTrophy.xlsx</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>269.随机天气buff表@RandomWeather.xlsx</t>
+          <t>268.结算显示数据类型配置表@SettleShowValue.xlsx</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>270.地图教学视频配置表@MapTutorialVideo.xlsx</t>
+          <t>269.随机天气buff表@RandomWeather.xlsx</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>271.社区加群@CommunityGroup.xlsx</t>
+          <t>270.地图教学视频配置表@MapTutorialVideo.xlsx</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>272.单局随机BUFF表@BattleRandomBuff.xlsx</t>
+          <t>271.社区加群@CommunityGroup.xlsx</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>273.房间跳转保留界面配置表@MatchRoomIgnoreClosePage.xlsx</t>
+          <t>272.单局随机BUFF表@BattleRandomBuff.xlsx</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>274.重登时协议重发配置表@ReConnectReSend.xlsx</t>
+          <t>273.房间跳转保留界面配置表@MatchRoomIgnoreClosePage.xlsx</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>275.徽章buff表@BadgeCollect_Base.xlsx</t>
+          <t>274.重登时协议重发配置表@ReConnectReSend.xlsx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>276.排位赛季内容详情@SeasonDetailsDesc.xlsx</t>
+          <t>275.徽章buff表@BadgeCollect_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>277.家园配置表@HomeBase.xlsx</t>
+          <t>276.排位赛季内容详情@SeasonDetailsDesc.xlsx</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>278.局内游标配置@BattleArrowTip.xlsx</t>
+          <t>277.家园配置表@HomeBase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>279.局内排球玩法配置@VolleyBallMode.xlsx</t>
+          <t>278.局内游标配置@BattleArrowTip.xlsx</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>280.短模式赛季表@ShortModeSeason.xlsx</t>
+          <t>279.局内排球玩法配置@VolleyBallMode.xlsx</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>281.渠道号配置表@ChannelControlCfg.xlsx</t>
+          <t>280.短模式赛季表@ShortModeSeason.xlsx</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>282.排位开启调整阶段段位表@RankOpenAdjust.xlsx</t>
+          <t>281.渠道号配置表@ChannelControlCfg.xlsx</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>283.双月卡@DoubleMonthCard.xlsx</t>
+          <t>282.排位开启调整阶段段位表@RankOpenAdjust.xlsx</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>284.电子服个性按键@PersonaliseButton.xlsx</t>
+          <t>283.双月卡@DoubleMonthCard.xlsx</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>285.分享@ShareFunction.xlsx</t>
+          <t>284.电子服个性按键@PersonaliseButton.xlsx</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>286.CR宝箱表@CRBox.xlsx</t>
+          <t>285.分享@ShareFunction.xlsx</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>286.局内最终时刻配置@FinalMoment.xlsx</t>
+          <t>286.CR宝箱表@CRBox.xlsx</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>287.刮刮卡累计使用奖励@ScratchCardUseReward.xlsx</t>
+          <t>286.局内最终时刻配置@FinalMoment.xlsx</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>288.抽奖表@LotteryAward.xlsx</t>
+          <t>287.刮刮卡累计使用奖励@ScratchCardUseReward.xlsx</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>289.集换配置表@CollectExchange.xlsx</t>
+          <t>288.抽奖表@LotteryAward.xlsx</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>290.机型档位效果设置表@DeviceLevelGraphicSetting.xlsx</t>
+          <t>289.集换配置表@CollectExchange.xlsx</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>291.新手宝可梦聚焦配置表@PokemonFocus.xlsx</t>
+          <t>290.机型档位效果设置表@DeviceLevelGraphicSetting.xlsx</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>292.动作展示配置@ShowAnim.xlsx</t>
+          <t>291.新手宝可梦聚焦配置表@PokemonFocus.xlsx</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>293.新手金币翻倍配置表@NewBieCookiesRatio.xlsx</t>
+          <t>292.动作展示配置@ShowAnim.xlsx</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>294.UI优先级配置@UIPriority.xlsx</t>
+          <t>293.新手金币翻倍配置表@NewBieCookiesRatio.xlsx</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>295.阻挡物随机掉落点@BlockDropRandomPosition.xlsx</t>
+          <t>294.UI优先级配置@UIPriority.xlsx</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>296.荣耀播报@GloryAnnounce.xlsx</t>
+          <t>295.阻挡物随机掉落点@BlockDropRandomPosition.xlsx</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>297.锦标赛@Championship.xlsx</t>
+          <t>296.荣耀播报@GloryAnnounce.xlsx</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>298.贵族特权@NoblePrevileg.xlsx</t>
+          <t>297.锦标赛@Championship.xlsx</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>299.战斗空投表@BattleAirDrop.xlsx</t>
+          <t>298.贵族特权@NoblePrevileg.xlsx</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>299.谁是卧底词库@WhoIsSpyWord.xlsx</t>
+          <t>299.战斗空投表@BattleAirDrop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>300.轮播图@Carousel.xlsx</t>
+          <t>299.谁是卧底词库@WhoIsSpyWord.xlsx</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>301.国内主城入口宣传活动@LobbyEntranceShow.xlsx</t>
+          <t>300.轮播图@Carousel.xlsx</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>302.大头贴@HeadShots.xlsx</t>
+          <t>301.国内主城入口宣传活动@LobbyEntranceShow.xlsx</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>303.个性化定制@PersonalStyle.xlsx</t>
+          <t>302.大头贴@HeadShots.xlsx</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>304.趣游迷塔表@FunTower.xlsx</t>
+          <t>303.个性化定制@PersonalStyle.xlsx</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>305.局外特效表@OutSide_Effect.xlsx</t>
+          <t>304.趣游迷塔表@FunTower.xlsx</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>306.主城一次性社交资源表@InteractProp.xlsx</t>
+          <t>305.局外特效表@OutSide_Effect.xlsx</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>307.任务资源映射表@TaskResConfig.xlsx</t>
+          <t>306.主城一次性社交资源表@InteractProp.xlsx</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>307.新手7日签到@NoviceZone.xlsx</t>
+          <t>307.任务资源映射表@TaskResConfig.xlsx</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>308.局外资源预热@OutSidePreload.xlsx</t>
+          <t>307.新手7日签到@NoviceZone.xlsx</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>309.系统提示表@SystemText.xlsx</t>
+          <t>308.局外资源预热@OutSidePreload.xlsx</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>310.预览排序表@PreviewSort.xlsx</t>
+          <t>309.系统提示表@SystemText.xlsx</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>311.MVP分数计算表@MvpAbilitySection.xlsx</t>
+          <t>310.预览排序表@PreviewSort.xlsx</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>312.云游戏配置表@CloudGame.xlsx</t>
+          <t>311.MVP分数计算表@MvpAbilitySection.xlsx</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>313.水箭龟浇花活动表@BlastoiseWaterFlower.xlsx</t>
+          <t>312.云游戏配置表@CloudGame.xlsx</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>314.社区绑定活动表@CommunityBindingActivity.xlsx</t>
+          <t>313.水箭龟浇花活动表@BlastoiseWaterFlower.xlsx</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>315.绮愿宝箱活动配置表@LoftyWish.xlsx</t>
+          <t>314.社区绑定活动表@CommunityBindingActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>316.亲子服@ParentChildCloth.xlsx</t>
+          <t>315.绮愿宝箱活动配置表@LoftyWish.xlsx</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>317.图鉴@IllustratedHandbook.xlsx</t>
+          <t>316.亲子服@ParentChildCloth.xlsx</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>319.限时活动战令@TimeLimitBPActivity.xlsx</t>
+          <t>317.图鉴@IllustratedHandbook.xlsx</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>320.可达鸭活动表@Psyduck.xlsx</t>
+          <t>319.限时活动战令@TimeLimitBPActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>321.战场随机事件表@BattleRandomEvent.xlsx</t>
+          <t>320.可达鸭活动表@Psyduck.xlsx</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>321.皮卡丘充电活动专属表@PikachuChargeActivity.xlsx</t>
+          <t>321.战场随机事件表@BattleRandomEvent.xlsx</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>322.宝可梦相关问题库@PokemonQuestionBank.xlsx</t>
+          <t>321.皮卡丘充电活动专属表@PikachuChargeActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>323.数值限制表@ValueLimit.xlsx</t>
+          <t>322.宝可梦相关问题库@PokemonQuestionBank.xlsx</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>323.限时组队开黑buff@LimitTimeGandUp.xlsx</t>
+          <t>323.数值限制表@ValueLimit.xlsx</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>324.亲密关系表@IntimacyRelation.xlsx</t>
+          <t>323.限时组队开黑buff@LimitTimeGandUp.xlsx</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>325.短模式资源加成表@ShortModeResourceAddition.xlsx</t>
+          <t>324.亲密关系表@IntimacyRelation.xlsx</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>326.省份信息表@province.xlsx</t>
+          <t>325.短模式资源加成表@ShortModeResourceAddition.xlsx</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>327.转场配置表@TransitionCfg.xlsx</t>
+          <t>326.省份信息表@province.xlsx</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>328.试玩局内任务表@BattleTrialTask.xlsx</t>
+          <t>327.转场配置表@TransitionCfg.xlsx</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>329.美团外卖联动配置表@MeituanTakeawayCfg.xlsx</t>
+          <t>328.试玩局内任务表@BattleTrialTask.xlsx</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>330.开服集合活动表@CelebrationCollection.xlsx</t>
+          <t>329.美团外卖联动配置表@MeituanTakeawayCfg.xlsx</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>331.周期挑战表@PeriodChallenge.xlsx</t>
+          <t>330.开服集合活动表@CelebrationCollection.xlsx</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>332.全服分享表@GlobalShareProgressAddition.xlsx</t>
+          <t>331.周期挑战表@PeriodChallenge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>333.组队推荐表@TeamRecommend.xlsx</t>
+          <t>332.全服分享表@GlobalShareProgressAddition.xlsx</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>334.吃鸡模式成长表@BRDevelopment.xlsx</t>
+          <t>333.组队推荐表@TeamRecommend.xlsx</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>335.精彩时刻分享表@AiCreateShare_Base.xlsx</t>
+          <t>334.吃鸡模式成长表@BRDevelopment.xlsx</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>336.巅峰赛配置表@TopTournament.xlsx</t>
+          <t>335.精彩时刻分享表@AiCreateShare_Base.xlsx</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>337.宝可梦战力值配置表@PokemonPowerPoint.xlsx</t>
+          <t>336.巅峰赛配置表@TopTournament.xlsx</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>338.集结小队表@UniteTeam.xlsx</t>
+          <t>337.宝可梦战力值配置表@PokemonPowerPoint.xlsx</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>339.载具表@VehicleItem.xlsx</t>
+          <t>338.集结小队表@UniteTeam.xlsx</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>340.秒杀专区活动表@FlashSale.xlsx</t>
+          <t>339.载具表@VehicleItem.xlsx</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>341.实体徽章信息表@PhyscialBadge.xlsx</t>
+          <t>340.秒杀专区活动表@FlashSale.xlsx</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>342.自然周签到表@WeeklyCheckin.xlsx</t>
+          <t>341.实体徽章信息表@PhyscialBadge.xlsx</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>345.全民挑战赛战前选择黑名单@NccChooseBlacklist.xlsx</t>
+          <t>342.自然周签到表@WeeklyCheckin.xlsx</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>345.道具来源表@PropFrom.xlsx</t>
+          <t>345.全民挑战赛战前选择黑名单@NccChooseBlacklist.xlsx</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>346.主城NPC任务配置表@CityNpcTask.xlsx</t>
+          <t>345.道具来源表@PropFrom.xlsx</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>347.组件通用机型黑名单表@SdkDeviceBlackList.xlsx</t>
+          <t>346.主城NPC任务配置表@CityNpcTask.xlsx</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>348.主城交互优化配置表@CityPlayerQuickInteract.xlsx</t>
+          <t>347.组件通用机型黑名单表@SdkDeviceBlackList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>349.域名解析兜底配置表@DomainNameFallbackConf.xlsx</t>
+          <t>348.主城交互优化配置表@CityPlayerQuickInteract.xlsx</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>350.通用灰度配置表@GeneralGrayConf.xlsx</t>
+          <t>349.域名解析兜底配置表@DomainNameFallbackConf.xlsx</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>351.兑换码提示语映射表@CdkErrorCodeList.xlsx</t>
+          <t>350.通用灰度配置表@GeneralGrayConf.xlsx</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>352.官配构筑表@OfficialMatching.xlsx</t>
+          <t>351.兑换码提示语映射表@CdkErrorCodeList.xlsx</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>353.cdkey兑换流水表@CdkFlowMeters.xlsx</t>
+          <t>352.官配构筑表@OfficialMatching.xlsx</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>354.资源监控表@ResMonitor.xlsx</t>
+          <t>353.cdkey兑换流水表@CdkFlowMeters.xlsx</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>355.舞台活动配置表@FakeCat.xlsx</t>
+          <t>354.资源监控表@ResMonitor.xlsx</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>356.火箭队活动@RocketTeamActivity.xlsx</t>
+          <t>355.舞台活动配置表@FakeCat.xlsx</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>357.加载Loading配置表@TransAnim.xlsx</t>
+          <t>356.火箭队活动@RocketTeamActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>358.寻梦之旅活动表@DreamQuestActivity.xlsx</t>
+          <t>357.加载Loading配置表@TransAnim.xlsx</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>359.小刚挖化石活动配置表@ExcavateFossil.xlsx</t>
+          <t>358.寻梦之旅活动表@DreamQuestActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>360.商城个性化推荐@ShoppingRecommend.xlsx</t>
+          <t>359.小刚挖化石活动配置表@ExcavateFossil.xlsx</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>361.聊天祝福语活动配置表@ChatForBless.xlsx</t>
+          <t>360.商城个性化推荐@ShoppingRecommend.xlsx</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>362.语音包配置表@VoicePackage.xlsx</t>
+          <t>361.聊天祝福语活动配置表@ChatForBless.xlsx</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>363.主城物品交互活动表@CityMaterialInteractionActivity.xlsx</t>
+          <t>362.语音包配置表@VoicePackage.xlsx</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>364.公会推荐表@GuildRecommend.xlsx</t>
+          <t>363.主城物品交互活动表@CityMaterialInteractionActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>364.自走棋配置表_阶段@AutoChessStage.xlsx</t>
+          <t>364.公会推荐表@GuildRecommend.xlsx</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>365.自走棋配置表_商店@AutoChessShop.xlsx</t>
+          <t>364.自走棋配置表_阶段@AutoChessStage.xlsx</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>366.自走棋配置表_等级@AutoChessLevel.xlsx</t>
+          <t>365.自走棋配置表_商店@AutoChessShop.xlsx</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>367.自走棋配置表_羁绊@AutoChessBond.xlsx</t>
+          <t>366.自走棋配置表_等级@AutoChessLevel.xlsx</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>368.自走棋配置表_棋子@AutoChessChessman.xlsx</t>
+          <t>367.自走棋配置表_羁绊@AutoChessBond.xlsx</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>369.自走棋配置表_装备@AutoChessEquipment.xlsx</t>
+          <t>368.自走棋配置表_棋子@AutoChessChessman.xlsx</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>370.自走棋配置表_全局配置@AutoChessGlobalBase.xlsx</t>
+          <t>369.自走棋配置表_装备@AutoChessEquipment.xlsx</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>370.自走棋配置表_局外系统表@AutoChessOutsiderGlobalBase.xlsx</t>
+          <t>370.自走棋配置表_全局配置@AutoChessGlobalBase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>371.春节橘子树活动表@OrangeTreeActivity.xlsx</t>
+          <t>370.自走棋配置表_局外系统表@AutoChessOutsiderGlobalBase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>372.奇妙占星宿@WonderfulAstrology.xlsx</t>
+          <t>371.春节橘子树活动表@OrangeTreeActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>372.拼团表@GroupBuying.xlsx</t>
+          <t>372.奇妙占星宿@WonderfulAstrology.xlsx</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>373.化石图鉴活动配置表@ShowFossil.xlsx</t>
+          <t>372.拼团表@GroupBuying.xlsx</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>374.情人节活动配置表@ValentiensDayActivity.xlsx</t>
+          <t>373.化石图鉴活动配置表@ShowFossil.xlsx</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>375.自走棋配置表_AI@AutoChessAiDifficulty.xlsx</t>
+          <t>374.情人节活动配置表@ValentiensDayActivity.xlsx</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>376.亿奥斯科技局外规则表@YiAoSiTec.xlsx</t>
+          <t>375.自走棋配置表_AI@AutoChessAiDifficulty.xlsx</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>377.元宵喂食活动表@PokemonKitchen.xlsx</t>
+          <t>376.亿奥斯科技局外规则表@YiAoSiTec.xlsx</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>378.活动任务关系表@TaskRelationship.xlsx</t>
+          <t>377.元宵喂食活动表@PokemonKitchen.xlsx</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>379.主城小游戏表@CityMiniGame.xlsx</t>
+          <t>378.活动任务关系表@TaskRelationship.xlsx</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>380.微信订阅配置表@Weixinmp.xlsx</t>
+          <t>379.主城小游戏表@CityMiniGame.xlsx</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>381.结算加成提示表@SettlementBonusTips.xlsx</t>
+          <t>380.微信订阅配置表@Weixinmp.xlsx</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>382.天空城扭蛋表@SkyCityGashapon.xlsx</t>
+          <t>381.结算加成提示表@SettlementBonusTips.xlsx</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>383.宝可梦同款服@PokemonStyleCloth.xlsx</t>
+          <t>382.天空城扭蛋表@SkyCityGashapon.xlsx</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>384.表情包配置表@EmojiBase.xlsx</t>
+          <t>383.宝可梦同款服@PokemonStyleCloth.xlsx</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>385.自练场配置表@SelfTraingGame.xlsx</t>
+          <t>384.表情包配置表@EmojiBase.xlsx</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>408.紧凑切图表@tight_sprite.xlsx</t>
+          <t>385.自练场配置表@SelfTraingGame.xlsx</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>languageMap.txt</t>
+          <t>393.金银牌@GoldSilver.xlsx</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>languageMap_client.txt</t>
+          <t>408.紧凑切图表@tight_sprite.xlsx</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>languageMap_string(32).txt</t>
+          <t>409.进度轴活动配置表@AcquisitionSetting.xlsx</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>languageMap_单独.txt</t>
+          <t>410.自走棋配置表_棋子单位配置表@AutoChessUnitChessman.xlsx</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>res_key_words.xml</t>
+          <t>411.表情包配置表@PersonaliseExpression.xlsx</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
+        <is>
+          <t>languageMap.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>languageMap_client.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>languageMap_string(32).txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>languageMap_单独.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>res_key_words.xml</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
         <is>
           <t>self_define.mstxt</t>
         </is>
